--- a/biology/Médecine/Utérus_bicorne/Utérus_bicorne.xlsx
+++ b/biology/Médecine/Utérus_bicorne/Utérus_bicorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_bicorne</t>
+          <t>Utérus_bicorne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’utérus bicorne ou hémi-utérus (demi-utérus) ou utérus bifide ou encore hémi-matrice est :
 soit une conformation utérine normale chez certaines espèces : de nombreux mammifères, comme la souris, présentent de manière normale un utérus bifide (ce qui permet le développement simultané de nombreux embryons) ;
@@ -490,9 +502,9 @@
 10 à 13 semaines : fusion du tiers inférieur des canaux de Müller formant l’ébauche des cavités utérines et vaginales ;
 14 à 18 semaines : résorption de bas en haut de la cloison médiane séparant les canaux de Müller.
 Aussi, suivant le défaut plus ou moins complet de l’accolement des canaux de Müller responsable des utérus bicornes on distingue la présence de un ou deux cols (bicervical avec vagin unique ou perméable avec cloison vaginale sagittale ou unicervical, le plus fréquent).
-Plus simplement cette malformation résulte d’une anomalie survenant au cours de l’embryogénèse. L'utérus est fabriqué, dans la vie intra utérine, à partir de deux tubes qui se réunissent progressivement à partir du bas (qui va donner le tiers supérieur du vagin) vers le haut (qui va donner les trompes), ce sera la partie des tubes qui ne se sera pas réunie. Quand ce processus de fusion ne se fait pas complètement, deux cornes s'individualisent et on parle d'utérus bicorne. Quand un des deux "modules" ne s'est pas bien formé, il peut être absent ou borgne. Il peut y avoir deux utérus[1].
+Plus simplement cette malformation résulte d’une anomalie survenant au cours de l’embryogénèse. L'utérus est fabriqué, dans la vie intra utérine, à partir de deux tubes qui se réunissent progressivement à partir du bas (qui va donner le tiers supérieur du vagin) vers le haut (qui va donner les trompes), ce sera la partie des tubes qui ne se sera pas réunie. Quand ce processus de fusion ne se fait pas complètement, deux cornes s'individualisent et on parle d'utérus bicorne. Quand un des deux "modules" ne s'est pas bien formé, il peut être absent ou borgne. Il peut y avoir deux utérus.
 Cette malformation utérine est responsable principalement d’accidents obstétricaux.
-Il existe 2 classifications des malformations utérines[2] :
+Il existe 2 classifications des malformations utérines :
 Classification de Musset (1964).
 Classification d'AFS American Fertility Society (1988).
 Cependant en France c’est la classification de Musset qui est la plus communément utilisée.
@@ -506,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_bicorne</t>
+          <t>Utérus_bicorne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -524,7 +536,9 @@
           <t>Prévalence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anomalies utérines atteignent environ 2 % de la population.
 </t>
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_bicorne</t>
+          <t>Utérus_bicorne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,7 +569,9 @@
           <t>Signe clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement cette malformation est bien supportée et passe inaperçue. Le diagnostic repose sur les investigations complémentaires (voir examen clinique).
 L'utérus bicorne est principalement découvert :
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_bicorne</t>
+          <t>Utérus_bicorne</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +608,9 @@
           <t>Examen clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’examen clinique doit être complété par l’échographie, et selon les cas l’hystérosalpingographie, l’UIV, l’hystéro scopie et la cœlioscopie.
 L'échographie utérine est utile à la recherche des causes utérines car celles-ci sont fréquentes et parfois curables. L'échographie, quand elle est orientée, est très performante pour établir un diagnostic différentiel entre utérus cloisonné et bicorne même si l'hystérographie reste la référence dans beaucoup d'autres situations (unicorne, béance, hypoplasie, DES syndrome).
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_bicorne</t>
+          <t>Utérus_bicorne</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,9 +642,11 @@
           <t>Uterus bicornis chez les mammifères</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un double utérus est l'anatomie féminine normale chez de nombreux mammifères. Chez les insectivores, certaines espèces de primates, comme les lémuriens, ainsi que chez les carnivores et les baleines, l'utérus bicorne fait partie des structures saines morphologie[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un double utérus est l'anatomie féminine normale chez de nombreux mammifères. Chez les insectivores, certaines espèces de primates, comme les lémuriens, ainsi que chez les carnivores et les baleines, l'utérus bicorne fait partie des structures saines morphologie.
 </t>
         </is>
       </c>
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ut%C3%A9rus_bicorne</t>
+          <t>Utérus_bicorne</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,9 +675,11 @@
           <t>Santé et dégénérescence des tissus</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En cas d'utérus bicorne, le risque de cancer n'est pas augmenté. Le cancer de l'endomètre est très rares. Si la présence d'un utérus bicorne n'est pas encore connue et qu'il y a une suspicion clinique de carcinome, qui n'est pas confirmée par l'histologie, l'échographie et l'imagerie par résonance magnétique offrent des possibilités de diagnostic, car la cause peut être une deuxième corne utérine[4],[5],[6],[7],[8]. Environ 15 % de tous les tumeurs ovariennes et 8 à 10 % des tumeurs ovariennes épithéliales sont des adénomes kystiques mucineux (photo de droite), qui peuvent apparaître même si l'utérus s'est développé normalement[9].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En cas d'utérus bicorne, le risque de cancer n'est pas augmenté. Le cancer de l'endomètre est très rares. Si la présence d'un utérus bicorne n'est pas encore connue et qu'il y a une suspicion clinique de carcinome, qui n'est pas confirmée par l'histologie, l'échographie et l'imagerie par résonance magnétique offrent des possibilités de diagnostic, car la cause peut être une deuxième corne utérine. Environ 15 % de tous les tumeurs ovariennes et 8 à 10 % des tumeurs ovariennes épithéliales sont des adénomes kystiques mucineux (photo de droite), qui peuvent apparaître même si l'utérus s'est développé normalement.
 </t>
         </is>
       </c>
